--- a/Global_M2/TVDataFeed/FinalData/Romania.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2117,13 +2117,13 @@
         <v>41974</v>
       </c>
       <c r="B122" t="n">
-        <v>260073400000</v>
+        <v>261572700000</v>
       </c>
       <c r="C122" t="n">
         <v>0.2700367249945993</v>
       </c>
       <c r="D122" t="n">
-        <v>70229369194.21042</v>
+        <v>70634235255.99483</v>
       </c>
     </row>
     <row r="123">
@@ -2131,13 +2131,13 @@
         <v>42005</v>
       </c>
       <c r="B123" t="n">
-        <v>259066900000</v>
+        <v>259192800000</v>
       </c>
       <c r="C123" t="n">
         <v>0.2545371242395703</v>
       </c>
       <c r="D123" t="n">
-        <v>65942143711.66034</v>
+        <v>65974189935.6021</v>
       </c>
     </row>
     <row r="124">
@@ -2145,13 +2145,13 @@
         <v>42036</v>
       </c>
       <c r="B124" t="n">
-        <v>258475600000</v>
+        <v>258559200000</v>
       </c>
       <c r="C124" t="n">
         <v>0.2526783909440065</v>
       </c>
       <c r="D124" t="n">
-        <v>65311198706.28664</v>
+        <v>65332322619.76955</v>
       </c>
     </row>
     <row r="125">
@@ -2159,13 +2159,13 @@
         <v>42064</v>
       </c>
       <c r="B125" t="n">
-        <v>255275100000</v>
+        <v>255274400000</v>
       </c>
       <c r="C125" t="n">
         <v>0.2435994251053567</v>
       </c>
       <c r="D125" t="n">
-        <v>62184867603.71245</v>
+        <v>62184697084.11488</v>
       </c>
     </row>
     <row r="126">
@@ -2243,13 +2243,13 @@
         <v>42248</v>
       </c>
       <c r="B131" t="n">
-        <v>263615300000</v>
+        <v>263647500000</v>
       </c>
       <c r="C131" t="n">
         <v>0.2530492433827623</v>
       </c>
       <c r="D131" t="n">
-        <v>66707652209.1199</v>
+        <v>66715800394.75682</v>
       </c>
     </row>
     <row r="132">
@@ -2285,13 +2285,13 @@
         <v>42339</v>
       </c>
       <c r="B134" t="n">
-        <v>286171600000</v>
+        <v>286126300000</v>
       </c>
       <c r="C134" t="n">
         <v>0.241196333815726</v>
       </c>
       <c r="D134" t="n">
-        <v>69023540762.18042</v>
+        <v>69012614568.25856</v>
       </c>
     </row>
     <row r="135">
@@ -2299,13 +2299,13 @@
         <v>42370</v>
       </c>
       <c r="B135" t="n">
-        <v>283928100000</v>
+        <v>283933800000</v>
       </c>
       <c r="C135" t="n">
         <v>0.2384415460549846</v>
       </c>
       <c r="D135" t="n">
-        <v>67700255132.45428</v>
+        <v>67701614249.26678</v>
       </c>
     </row>
     <row r="136">
@@ -2313,13 +2313,13 @@
         <v>42401</v>
       </c>
       <c r="B136" t="n">
-        <v>283622900000</v>
+        <v>283623100000</v>
       </c>
       <c r="C136" t="n">
         <v>0.2436647173489279</v>
       </c>
       <c r="D136" t="n">
-        <v>69108893762.18323</v>
+        <v>69108942495.12671</v>
       </c>
     </row>
     <row r="137">
@@ -2327,13 +2327,13 @@
         <v>42430</v>
       </c>
       <c r="B137" t="n">
-        <v>280654700000</v>
+        <v>280655000000</v>
       </c>
       <c r="C137" t="n">
         <v>0.2550109654715152</v>
       </c>
       <c r="D137" t="n">
-        <v>71570026011.11847</v>
+        <v>71570102514.40811</v>
       </c>
     </row>
     <row r="138">
@@ -2397,13 +2397,13 @@
         <v>42583</v>
       </c>
       <c r="B142" t="n">
-        <v>295607800000</v>
+        <v>295604600000</v>
       </c>
       <c r="C142" t="n">
         <v>0.2509536237703273</v>
       </c>
       <c r="D142" t="n">
-        <v>74183848624.77414</v>
+        <v>74183045573.17809</v>
       </c>
     </row>
     <row r="143">
@@ -2411,13 +2411,13 @@
         <v>42614</v>
       </c>
       <c r="B143" t="n">
-        <v>295925700000</v>
+        <v>295922500000</v>
       </c>
       <c r="C143" t="n">
         <v>0.2527678074920378</v>
       </c>
       <c r="D143" t="n">
-        <v>74800490369.54654</v>
+        <v>74799681512.56256</v>
       </c>
     </row>
     <row r="144">
@@ -2425,13 +2425,13 @@
         <v>42644</v>
       </c>
       <c r="B144" t="n">
-        <v>296520200000</v>
+        <v>296506400000</v>
       </c>
       <c r="C144" t="n">
         <v>0.244081034903588</v>
       </c>
       <c r="D144" t="n">
-        <v>72374957285.81888</v>
+        <v>72371588967.53722</v>
       </c>
     </row>
     <row r="145">
@@ -2453,13 +2453,13 @@
         <v>42705</v>
       </c>
       <c r="B146" t="n">
-        <v>314053200000</v>
+        <v>314026000000</v>
       </c>
       <c r="C146" t="n">
         <v>0.2321316650804336</v>
       </c>
       <c r="D146" t="n">
-        <v>72901692239.83844</v>
+        <v>72895378258.54825</v>
       </c>
     </row>
     <row r="147">
@@ -2467,13 +2467,13 @@
         <v>42736</v>
       </c>
       <c r="B147" t="n">
-        <v>309775700000</v>
+        <v>309824800000</v>
       </c>
       <c r="C147" t="n">
         <v>0.2403441728555291</v>
       </c>
       <c r="D147" t="n">
-        <v>74452784387.24252</v>
+        <v>74464585286.12973</v>
       </c>
     </row>
     <row r="148">
@@ -2481,13 +2481,13 @@
         <v>42767</v>
       </c>
       <c r="B148" t="n">
-        <v>312162300000</v>
+        <v>311655400000</v>
       </c>
       <c r="C148" t="n">
         <v>0.2342304359028412</v>
       </c>
       <c r="D148" t="n">
-        <v>73117911601.43349</v>
+        <v>72999180193.47433</v>
       </c>
     </row>
     <row r="149">
@@ -2495,13 +2495,13 @@
         <v>42795</v>
       </c>
       <c r="B149" t="n">
-        <v>315022100000</v>
+        <v>314511600000</v>
       </c>
       <c r="C149" t="n">
         <v>0.2343786621665963</v>
       </c>
       <c r="D149" t="n">
-        <v>73834458350.91173</v>
+        <v>73714808043.87569</v>
       </c>
     </row>
     <row r="150">
@@ -2509,13 +2509,13 @@
         <v>42826</v>
       </c>
       <c r="B150" t="n">
-        <v>319043500000</v>
+        <v>318498700000</v>
       </c>
       <c r="C150" t="n">
         <v>0.2403210689481147</v>
       </c>
       <c r="D150" t="n">
-        <v>76672874960.94781</v>
+        <v>76541948042.58488</v>
       </c>
     </row>
     <row r="151">
@@ -2523,13 +2523,13 @@
         <v>42856</v>
       </c>
       <c r="B151" t="n">
-        <v>321160200000</v>
+        <v>320618400000</v>
       </c>
       <c r="C151" t="n">
         <v>0.2466212883496103</v>
       </c>
       <c r="D151" t="n">
-        <v>79204942290.61853</v>
+        <v>79071322876.59071</v>
       </c>
     </row>
     <row r="152">
@@ -2537,13 +2537,13 @@
         <v>42887</v>
       </c>
       <c r="B152" t="n">
-        <v>321638500000</v>
+        <v>321076200000</v>
       </c>
       <c r="C152" t="n">
         <v>0.2519145505844418</v>
       </c>
       <c r="D152" t="n">
-        <v>81025418178.15398</v>
+        <v>80883766626.36035</v>
       </c>
     </row>
     <row r="153">
@@ -2551,13 +2551,13 @@
         <v>42917</v>
       </c>
       <c r="B153" t="n">
-        <v>324761500000</v>
+        <v>324218500000</v>
       </c>
       <c r="C153" t="n">
         <v>0.2599428125812321</v>
       </c>
       <c r="D153" t="n">
-        <v>84419417728.09982</v>
+        <v>84278268780.86821</v>
       </c>
     </row>
     <row r="154">
@@ -2565,13 +2565,13 @@
         <v>42948</v>
       </c>
       <c r="B154" t="n">
-        <v>330165800000</v>
+        <v>329607000000</v>
       </c>
       <c r="C154" t="n">
         <v>0.259794242959576</v>
       </c>
       <c r="D154" t="n">
-        <v>85775174062.14278</v>
+        <v>85630001039.17696</v>
       </c>
     </row>
     <row r="155">
@@ -2579,13 +2579,13 @@
         <v>42979</v>
       </c>
       <c r="B155" t="n">
-        <v>332177500000</v>
+        <v>332065200000</v>
       </c>
       <c r="C155" t="n">
         <v>0.2572214934279908</v>
       </c>
       <c r="D155" t="n">
-        <v>85443192633.17642</v>
+        <v>85414306659.46446</v>
       </c>
     </row>
     <row r="156">
@@ -2593,13 +2593,13 @@
         <v>43009</v>
       </c>
       <c r="B156" t="n">
-        <v>336835300000</v>
+        <v>336385900000</v>
       </c>
       <c r="C156" t="n">
         <v>0.2530812643939969</v>
       </c>
       <c r="D156" t="n">
-        <v>85246703616.53127</v>
+        <v>85132968896.31261</v>
       </c>
     </row>
     <row r="157">
@@ -2607,13 +2607,13 @@
         <v>43040</v>
       </c>
       <c r="B157" t="n">
-        <v>339687800000</v>
+        <v>339280200000</v>
       </c>
       <c r="C157" t="n">
         <v>0.2567987468221155</v>
       </c>
       <c r="D157" t="n">
-        <v>87231401350.76141</v>
+        <v>87126730181.55672</v>
       </c>
     </row>
     <row r="158">
@@ -2621,13 +2621,13 @@
         <v>43070</v>
       </c>
       <c r="B158" t="n">
-        <v>350473800000</v>
+        <v>350004800000</v>
       </c>
       <c r="C158" t="n">
         <v>0.2579180852161354</v>
       </c>
       <c r="D158" t="n">
-        <v>90393531414.42278</v>
+        <v>90272567832.45641</v>
       </c>
     </row>
     <row r="159">
@@ -2635,13 +2635,13 @@
         <v>43101</v>
       </c>
       <c r="B159" t="n">
-        <v>349808200000</v>
+        <v>348823700000</v>
       </c>
       <c r="C159" t="n">
         <v>0.2670369579149754</v>
       </c>
       <c r="D159" t="n">
-        <v>93411717581.71332</v>
+        <v>93148819696.64603</v>
       </c>
     </row>
     <row r="160">
@@ -2649,13 +2649,13 @@
         <v>43132</v>
       </c>
       <c r="B160" t="n">
-        <v>353332100000</v>
+        <v>352411100000</v>
       </c>
       <c r="C160" t="n">
         <v>0.2619652634060723</v>
       </c>
       <c r="D160" t="n">
-        <v>92560736646.32069</v>
+        <v>92319466638.72371</v>
       </c>
     </row>
     <row r="161">
@@ -2663,13 +2663,13 @@
         <v>43160</v>
       </c>
       <c r="B161" t="n">
-        <v>351155100000</v>
+        <v>351238500000</v>
       </c>
       <c r="C161" t="n">
         <v>0.264977874347492</v>
       </c>
       <c r="D161" t="n">
-        <v>93048331964.28098</v>
+        <v>93070431119.00156</v>
       </c>
     </row>
     <row r="162">
@@ -2677,13 +2677,13 @@
         <v>43191</v>
       </c>
       <c r="B162" t="n">
-        <v>354604100000</v>
+        <v>354917800000</v>
       </c>
       <c r="C162" t="n">
         <v>0.2591546375722394</v>
       </c>
       <c r="D162" t="n">
-        <v>91897297017.13013</v>
+        <v>91978593826.93654</v>
       </c>
     </row>
     <row r="163">
@@ -2691,13 +2691,13 @@
         <v>43221</v>
       </c>
       <c r="B163" t="n">
-        <v>356165500000</v>
+        <v>356539500000</v>
       </c>
       <c r="C163" t="n">
         <v>0.251098556183302</v>
       </c>
       <c r="D163" t="n">
-        <v>89432642812.30383</v>
+        <v>89526553672.31639</v>
       </c>
     </row>
     <row r="164">
@@ -2705,13 +2705,13 @@
         <v>43252</v>
       </c>
       <c r="B164" t="n">
-        <v>362020100000</v>
+        <v>362385300000</v>
       </c>
       <c r="C164" t="n">
         <v>0.2506831114787797</v>
       </c>
       <c r="D164" t="n">
-        <v>90752325085.85898</v>
+        <v>90843874558.17102</v>
       </c>
     </row>
     <row r="165">
@@ -2719,13 +2719,13 @@
         <v>43282</v>
       </c>
       <c r="B165" t="n">
-        <v>359935200000</v>
+        <v>360221900000</v>
       </c>
       <c r="C165" t="n">
         <v>0.2530364372469636</v>
       </c>
       <c r="D165" t="n">
-        <v>91076720647.77328</v>
+        <v>91149266194.33199</v>
       </c>
     </row>
     <row r="166">
@@ -2789,13 +2789,13 @@
         <v>43435</v>
       </c>
       <c r="B170" t="n">
-        <v>381161000000</v>
+        <v>381075300000</v>
       </c>
       <c r="C170" t="n">
         <v>0.2464511041009464</v>
       </c>
       <c r="D170" t="n">
-        <v>93937549290.22083</v>
+        <v>93916428430.59937</v>
       </c>
     </row>
     <row r="171">
@@ -2803,13 +2803,13 @@
         <v>43466</v>
       </c>
       <c r="B171" t="n">
-        <v>382664200000</v>
+        <v>382602200000</v>
       </c>
       <c r="C171" t="n">
         <v>0.2419784155253351</v>
       </c>
       <c r="D171" t="n">
-        <v>92596476794.26994</v>
+        <v>92581474132.50739</v>
       </c>
     </row>
     <row r="172">
@@ -2817,13 +2817,13 @@
         <v>43497</v>
       </c>
       <c r="B172" t="n">
-        <v>384993500000</v>
+        <v>384958100000</v>
       </c>
       <c r="C172" t="n">
         <v>0.2397334164409177</v>
       </c>
       <c r="D172" t="n">
-        <v>92295807062.54646</v>
+        <v>92287320499.60445</v>
       </c>
     </row>
     <row r="173">
@@ -2831,13 +2831,13 @@
         <v>43525</v>
       </c>
       <c r="B173" t="n">
-        <v>383058500000</v>
+        <v>383090000000</v>
       </c>
       <c r="C173" t="n">
         <v>0.2351226164444758</v>
       </c>
       <c r="D173" t="n">
-        <v>90065716771.29623</v>
+        <v>90073123133.71423</v>
       </c>
     </row>
     <row r="174">
@@ -2957,13 +2957,13 @@
         <v>43800</v>
       </c>
       <c r="B182" t="n">
-        <v>422628600000</v>
+        <v>422631600000</v>
       </c>
       <c r="C182" t="n">
         <v>0.2345050770349178</v>
       </c>
       <c r="D182" t="n">
-        <v>99108552400.15945</v>
+        <v>99109255915.39055</v>
       </c>
     </row>
     <row r="183">
@@ -3097,13 +3097,13 @@
         <v>44105</v>
       </c>
       <c r="B192" t="n">
-        <v>469279600000</v>
+        <v>469280100000</v>
       </c>
       <c r="C192" t="n">
         <v>0.2399117124898038</v>
       </c>
       <c r="D192" t="n">
-        <v>112585672472.5301</v>
+        <v>112585792428.3864</v>
       </c>
     </row>
     <row r="193">
@@ -3125,13 +3125,13 @@
         <v>44166</v>
       </c>
       <c r="B194" t="n">
-        <v>487450500000</v>
+        <v>487349900000</v>
       </c>
       <c r="C194" t="n">
         <v>0.2524487529031607</v>
       </c>
       <c r="D194" t="n">
-        <v>123056270827.0221</v>
+        <v>123030874482.4801</v>
       </c>
     </row>
     <row r="195">
@@ -3139,13 +3139,13 @@
         <v>44197</v>
       </c>
       <c r="B195" t="n">
-        <v>490466500000</v>
+        <v>490302300000</v>
       </c>
       <c r="C195" t="n">
         <v>0.2493081698287253</v>
       </c>
       <c r="D195" t="n">
-        <v>122277305477.3005</v>
+        <v>122236369075.8146</v>
       </c>
     </row>
     <row r="196">
@@ -3153,13 +3153,13 @@
         <v>44228</v>
       </c>
       <c r="B196" t="n">
-        <v>497102400000</v>
+        <v>496963100000</v>
       </c>
       <c r="C196" t="n">
         <v>0.2479359333548211</v>
       </c>
       <c r="D196" t="n">
-        <v>123249547516.9216</v>
+        <v>123215010041.4053</v>
       </c>
     </row>
     <row r="197">
@@ -3167,13 +3167,13 @@
         <v>44256</v>
       </c>
       <c r="B197" t="n">
-        <v>499199200000</v>
+        <v>499199700000</v>
       </c>
       <c r="C197" t="n">
         <v>0.2384642899725766</v>
       </c>
       <c r="D197" t="n">
-        <v>119041182782.8783</v>
+        <v>119041302015.0232</v>
       </c>
     </row>
     <row r="198">
@@ -3293,13 +3293,13 @@
         <v>44531</v>
       </c>
       <c r="B206" t="n">
-        <v>564423600000</v>
+        <v>564423000000</v>
       </c>
       <c r="C206" t="n">
         <v>0.2301284116537028</v>
       </c>
       <c r="D206" t="n">
-        <v>129889906567.8649</v>
+        <v>129889768490.8179</v>
       </c>
     </row>
     <row r="207">
@@ -3349,13 +3349,13 @@
         <v>44652</v>
       </c>
       <c r="B210" t="n">
-        <v>569722700000</v>
+        <v>569711700000</v>
       </c>
       <c r="C210" t="n">
         <v>0.2133560913164071</v>
       </c>
       <c r="D210" t="n">
-        <v>121553808406.23</v>
+        <v>121551461489.2255</v>
       </c>
     </row>
     <row r="211">
@@ -3377,13 +3377,13 @@
         <v>44713</v>
       </c>
       <c r="B212" t="n">
-        <v>569291700000</v>
+        <v>569309400000</v>
       </c>
       <c r="C212" t="n">
         <v>0.2121925859910455</v>
       </c>
       <c r="D212" t="n">
-        <v>120799478006.2385</v>
+        <v>120803233815.0105</v>
       </c>
     </row>
     <row r="213">
@@ -3419,13 +3419,13 @@
         <v>44805</v>
       </c>
       <c r="B215" t="n">
-        <v>581768701100</v>
+        <v>581768700000</v>
       </c>
       <c r="C215" t="n">
         <v>0.1979335734927358</v>
       </c>
       <c r="D215" t="n">
-        <v>115151557954.9503</v>
+        <v>115151557737.2234</v>
       </c>
     </row>
     <row r="216">
@@ -3461,13 +3461,13 @@
         <v>44896</v>
       </c>
       <c r="B218" t="n">
-        <v>603118500000</v>
+        <v>603199600000</v>
       </c>
       <c r="C218" t="n">
         <v>0.2184503134761998</v>
       </c>
       <c r="D218" t="n">
-        <v>131751425388.2954</v>
+        <v>131769141708.7184</v>
       </c>
     </row>
     <row r="219">
@@ -3496,6 +3496,48 @@
       </c>
       <c r="D220" t="n">
         <v>131549021293.0535</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B221" t="n">
+        <v>613926400000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.2205168915938961</v>
+      </c>
+      <c r="D221" t="n">
+        <v>135381141395.4309</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B222" t="n">
+        <v>618680400000</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.2248302531588651</v>
+      </c>
+      <c r="D222" t="n">
+        <v>139098070956.4279</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B223" t="n">
+        <v>624790700000</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.2154151049071561</v>
+      </c>
+      <c r="D223" t="n">
+        <v>134589354185.5155</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Romania.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,13 +3461,13 @@
         <v>44896</v>
       </c>
       <c r="B218" t="n">
-        <v>603199600000</v>
+        <v>603042000000</v>
       </c>
       <c r="C218" t="n">
         <v>0.2184503134761998</v>
       </c>
       <c r="D218" t="n">
-        <v>131769141708.7184</v>
+        <v>131734713939.3145</v>
       </c>
     </row>
     <row r="219">
@@ -3475,13 +3475,13 @@
         <v>44927</v>
       </c>
       <c r="B219" t="n">
-        <v>603696300000</v>
+        <v>603647900000</v>
       </c>
       <c r="C219" t="n">
         <v>0.2209798245420193</v>
       </c>
       <c r="D219" t="n">
-        <v>133404702450.6663</v>
+        <v>133394007027.1584</v>
       </c>
     </row>
     <row r="220">
@@ -3489,13 +3489,13 @@
         <v>44958</v>
       </c>
       <c r="B220" t="n">
-        <v>612242300000</v>
+        <v>612183900000</v>
       </c>
       <c r="C220" t="n">
         <v>0.2148643131862229</v>
       </c>
       <c r="D220" t="n">
-        <v>131549021293.0535</v>
+        <v>131536473217.1634</v>
       </c>
     </row>
     <row r="221">
@@ -3538,6 +3538,20 @@
       </c>
       <c r="D223" t="n">
         <v>134589354185.5155</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B224" t="n">
+        <v>624519300000</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.2204342554833021</v>
+      </c>
+      <c r="D224" t="n">
+        <v>137665446930.453</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Romania.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3554,6 +3554,48 @@
         <v>137665446930.453</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B225" t="n">
+        <v>622009300000</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.2230848168473654</v>
+      </c>
+      <c r="D225" t="n">
+        <v>138760830767.8579</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B226" t="n">
+        <v>626029700000</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.2195775328268412</v>
+      </c>
+      <c r="D226" t="n">
+        <v>137462057002.3275</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B227" t="n">
+        <v>640762400000</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.2126709342634142</v>
+      </c>
+      <c r="D227" t="n">
+        <v>136271538248.8675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Romania.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Romania.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Romania_M2 (RON)</t>
+  </si>
+  <si>
+    <t>Romania_FX (USD)</t>
+  </si>
+  <si>
+    <t>Romania_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,3177 +385,3153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Romania_M2 (RON)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Romania_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Romania_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>38322</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>63176800000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>38353</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>62118300000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>38384</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>64213000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>38412</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>66916500000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>38443</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>68005700000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>38473</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>70768300000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>38504</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>74778800000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.3351094132234174</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>25059079789.55128</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>38534</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>74619100000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.3348289024308578</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>24984631353.37843</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>38565</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>76743400000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.3480682213713888</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>26711938739.99304</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>38596</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>80276500000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.3382377811601556</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>27152545239.30323</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>38626</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>81162700000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.330698766493601</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>26840404775.29019</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>38657</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>81416900000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.3225390272222939</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>26260127725.45478</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>38687</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>86230300000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.3219782342713632</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>27764279734.68993</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>38718</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>85490800000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.3349634889797012</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>28636296643.66584</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>38749</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>85533500000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.3417518198284406</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>29231229281.29593</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>38777</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>87229300000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.3441274648129667</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>30017997866.40972</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>38808</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>87722600000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.3616113401316265</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>31721486945.83062</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>38838</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>91441100000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.36405999708752</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>33290046599.67963</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>38869</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>94635800000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.356531660011409</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>33740658870.5077</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>38899</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>95352800000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3574364656682275</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>34082567823.56936</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>38930</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>97653700000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.3620695897751548</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>35357435099.02603</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>38961</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>98505100000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.3588216297678424</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>35345760522.44429</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>38991</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>99690600000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.3599452883161759</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>35883161759.41257</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>39022</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>100796100000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.3843049844356481</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>38736443641.67403</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>39052</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>110442300000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.3897723729342065</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>43047357343.31151</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>39083</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>106255000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.3798670465337132</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>40362773029.4397</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>39114</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>109241000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.388681592039801</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>42459965796.01991</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>39142</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>112348700000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.3972825871042072</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>44634182193.79445</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>39173</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>112943800000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.4092992796332678</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>46227815979.04388</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>39203</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>112663800000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.4110658938627862</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>46312245652.97817</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>39234</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>116127400000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.430551967622492</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>49998880564.88418</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>39264</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>119933500000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.434348260435217</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>52092907092.9071</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>39295</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>124293000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.4181650915781551</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>51974993727.52363</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>39326</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>126507900000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.4228508605015011</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>53493974375.23785</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>39356</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>128738300000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.4333882291756956</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>55793663864.08945</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>39387</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>136109000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.4276245456489203</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>58203549283.72889</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>39417</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>148043600000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.4074315514993481</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>60317633637.54888</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>39448</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>147458000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.4018646519852114</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>59258157852.4353</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>39479</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>149685200000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.4085634907664651</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>61155907828.07648</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>39508</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>151794100000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.4247547041583486</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>64475258038.48278</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>39539</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>157044700000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.4234596654668643</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>66502096125.34406</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>39569</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>157568300000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4281555060798082</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>67463735228.63504</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>39600</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>161463000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.4372731645458918</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>70603436967.07332</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>39630</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>161220700000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.442008486562942</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>71260917609.6181</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>39661</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>162279900000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.4160426027625229</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>67515351972.04193</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>39692</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>166012900000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3863987635239567</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>64147179289.02627</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>39722</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>162147500000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.3500542584100536</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>56760422865.54416</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>39753</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>164370100000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.3378264247829465</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>55528563224.21539</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>39783</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>173628800000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.353082409434362</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>61305275051.19695</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>39814</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>175770000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.3014408874419726</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>52984264785.67553</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>39845</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>175838100000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.2954820790119079</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>51957007357.50377</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>39873</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>174881700000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.3133224714876551</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>54794366461.96265</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>39904</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>175808300000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.3053528352010748</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>53683562856.88112</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>39934</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>176620800000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.3403907686023555</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>60120089863.16291</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>39965</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>179482000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.3338452293516725</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>59919209454.49689</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>39995</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>180373000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.3385469564628614</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>61064730178.07569</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>40026</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>182785300000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.3390290208841877</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>61969521291.02251</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>40057</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>182531800000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.3474635163307853</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>63423141070.18763</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>40087</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>182564200000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.3442340791738382</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>62844819277.10844</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>40118</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>184057600000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.3523359875977732</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>64850116270.87591</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>40148</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>188013000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.3408200129511605</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>64078593094.98653</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>40179</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>184278400000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.3382034632034632</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>62323593073.59308</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>40210</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>185677200000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.3318841060701603</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>61623311539.61037</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>40238</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>187820600000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.3289257285704888</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>61779027695.54635</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>40269</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>188254300000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.3230704616676897</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>60819403611.92776</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>40299</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>190109300000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.2933583665806149</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>55770153719.78409</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>40330</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>192278800000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.2809225496530607</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>54015450740.23093</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>40360</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>190773000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.3061943109097033</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>58413607275.17683</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>40391</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>192677100000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.2973889252364242</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>57300035686.67103</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>40422</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>192590400000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.3201639239290516</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>61660498175.06563</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>40452</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>191704000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.3271501946543658</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>62716000916.02054</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>40483</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>194198200000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.3023523009010098</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>58716272600.83449</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>40513</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>199572100000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.3129106952875649</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>62448244570.99944</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>40544</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>196008000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.3219056816352809</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>63096088845.96813</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>40575</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>194801000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.3284611594678929</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>63984562325.505</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>40603</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>192901100000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.3443170471370037</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>66419137141.47987</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>40634</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>192979000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.3637024913620658</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>70186943080.5601</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>40664</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>194621200000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.3488088178869162</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>67885590707.73309</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>40695</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>196089600000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.3428884926621863</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>67236867370.73105</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>40725</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>199479600000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.3408664825987661</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>67995909602.20882</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>40756</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>200475300000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.3407271116562745</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>68307369927.42513</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>40787</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>204772200000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.3074179962495004</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>62950659411.60196</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>40817</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>203293100000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.319723758672507</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>64997634044.18583</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>40848</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>205061000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.3088326127239037</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>63329524397.77641</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>40878</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>212058900000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.3000210014701029</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>63622123548.64841</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>40909</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>212438900000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.3015226895823911</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>64055148499.92462</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>40940</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>213529300000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.3068425897514575</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>65519883399.8159</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>40969</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>214288700000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.3044047365377006</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>65230495266.50636</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>41000</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>216330900000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.299275752678518</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>64742592925.1212</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>41030</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>218572700000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.2762583568152936</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>60382534946.68214</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>41061</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>216449700000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.2847299336579254</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>61629708721.27786</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>41091</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>221067100000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.2687160745955823</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>59404283334.22905</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>41122</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>220022000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.2814126917123962</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>61916983255.94485</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>41153</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>220774200000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.2836959913756418</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>62632755539.16422</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>41183</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>220230600000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.2854614484313894</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>62867346064.91394</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>41214</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>220506500000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.2880765131218852</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>63522743640.71098</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>41244</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>221829600000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.2970620562635535</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>65897157116.12156</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>41275</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>219147500000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.3104144032283098</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>68026540431.47603</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>41306</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>219301400000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.30016509079994</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>65826624643.55396</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>41334</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>225111200000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.2905034424657932</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>65395578537.60567</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>41365</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>225547300000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.3045994517209869</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>68701583917.14895</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>41395</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>225821600000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.2954558884358565</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>66720321456.00661</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>41426</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>227563300000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.2919537545252832</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>66437959827.16338</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>41456</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>225700100000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.301331886940276</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>68010637015.60899</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>41487</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>229632000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.2985341970922769</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>68553004746.69373</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>41518</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>231258700000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.30480370641307</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>70488508900.26822</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>41548</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>233537400000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.3068049334233295</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>71650426458.85747</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>41579</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>234700000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.3067672863365851</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>71998282103.19652</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>41609</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>241251000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.3081664098613251</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>74345454545.45454</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>41640</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>240443700000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.2998410842253605</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>72094899703.15732</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>41671</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>242710700000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.3069273502961849</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>74494552039.53224</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>41699</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>239323700000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.309052137095528</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>73963500942.60902</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>41730</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>240613000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.3127736769673464</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>75257412736.14412</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>41760</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>240549600000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.3108486167236555</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>74774510413.42865</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>41791</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>239506100000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.3124902346801662</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>74843317396.33136</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>41821</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>240389500000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.3030486696163404</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>72849718164.73726</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>41852</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>242528300000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.2989357885926103</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>72500388616.52516</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>41883</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>243219200000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.2866150759529951</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>69710289481.22672</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>41913</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>244570300000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.2842847395951785</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>69527604048.21469</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>41944</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>249191800000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.2815473844247987</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>70159299510.10756</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>41974</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>261572700000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.2700367249945993</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>70634235255.99483</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>42005</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>259192800000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.2545371242395703</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>65974189935.6021</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>42036</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>258559200000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.2526783909440065</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>65332322619.76955</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>42064</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>255274400000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.2435994251053567</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>62184697084.11488</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>42095</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>257454900000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.2538650960879389</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>65358812926.8107</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>42125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>257686500000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.2473472012664177</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>63738034579.13873</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>42156</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>260845000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.2494574300895552</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>65069723351.71003</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>42186</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>260015000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.2495757212738345</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>64893431167.01608</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>42217</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>262173500000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.2534083422026253</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>66436952004.45999</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>42248</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>263647500000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.2530492433827623</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>66715800394.75682</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>42278</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>265075300000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.2488676521825693</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>65968667562.59021</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>42309</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>269636200000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.2373830888287518</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>64007074016.0471</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>42339</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>286126300000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.241196333815726</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>69012614568.25856</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>42370</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>283933800000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.2384415460549846</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>67701614249.26678</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>42401</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>283623100000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.2436647173489279</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>69108942495.12671</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>42430</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>280655000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.2550109654715152</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>71570102514.40811</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>42461</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>285342300000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.2557021581262146</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>72962641914.69777</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>42491</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>290543300000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.2467612584824183</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>71694830351.6348</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>42522</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>294964700000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.246056937575355</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>72578110774.8333</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>42552</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>294072400000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.2509221388603116</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>73789275587.7851</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>42583</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>295604600000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.2509536237703273</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>74183045573.17809</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>42614</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>295922500000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.2527678074920378</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>74799681512.56256</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>42644</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>296506400000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.244081034903588</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>72371588967.53722</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>42675</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>301807600000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.235865745217822</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>71186074486.40234</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>42705</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>314026000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.2321316650804336</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>72895378258.54825</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>42736</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>309824800000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.2403441728555291</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>74464585286.12973</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>42767</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>311655400000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.2342304359028412</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>72999180193.47433</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>42795</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>314511600000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.2343786621665963</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>73714808043.87569</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>42826</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>318498700000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.2403210689481147</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>76541948042.58488</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>42856</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>320618400000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.2466212883496103</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>79071322876.59071</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>42887</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>321076200000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.2519145505844418</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>80883766626.36035</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>42917</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>324218500000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.2599428125812321</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>84278268780.86821</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>42948</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>329607000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.259794242959576</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>85630001039.17696</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>42979</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>332065200000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.2572214934279908</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>85414306659.46446</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>43009</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>336385900000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.2530812643939969</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>85132968896.31261</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>43040</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>339280200000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.2567987468221155</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>87126730181.55672</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>43070</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>350004800000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.2579180852161354</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>90272567832.45641</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>43101</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>348823700000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.2670369579149754</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>93148819696.64603</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>43132</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>352411100000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.2619652634060723</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>92319466638.72371</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>43160</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>351238500000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.264977874347492</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>93070431119.00156</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>43191</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>354917800000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.2591546375722394</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>91978593826.93654</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>43221</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>356539500000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.251098556183302</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>89526553672.31639</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>43252</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>362385300000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.2506831114787797</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>90843874558.17102</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>43282</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>360221900000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.2530364372469636</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>91149266194.33199</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>43313</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>365074400000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.2502001601281025</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>91341673338.67093</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>43344</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>366094800000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.2495694926252215</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>91366093488.73193</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>43374</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>368032900000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.2426772150362802</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>89313199213.72581</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>43405</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>376138000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.2436765924265315</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>91656026122.13072</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>43435</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>381075300000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.2464511041009464</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>93916428430.59937</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>43466</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>382602200000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.2419784155253351</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>92581474132.50739</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>43497</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>384958100000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.2397334164409177</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>92287320499.60445</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>43525</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>383090000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.2351226164444758</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>90073123133.71423</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>43556</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>390089800000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.2357156326607581</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>91950264001.50858</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>43586</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>389250600000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.2354326074161271</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>91642283696.29195</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>43617</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>390476100000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.241196333815726</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>94181403762.66281</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>43647</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>391420600000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.2341372044017795</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>91646125029.26715</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>43678</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>396300000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.2327205026762858</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>92227135210.61206</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>43709</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>400422300000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.2298903423067197</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>92053219614.244</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>43739</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>404380900000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.2345820920030965</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>94860517488.09496</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>43770</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>411920600000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.2304572271386431</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>94930079277.28615</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>43800</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>422631600000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.2345050770349178</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>99109255915.39055</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>43831</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>419528800000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.232320416318186</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>97465105473.46901</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>43862</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>423524200000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.2292841748062549</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>97107396707.47925</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>43891</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>433934700000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.2284722063560968</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>99142018323.47095</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>43922</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>439076000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.2269477793159794</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>99647323150.94296</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>43952</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>445553900000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.2293367580955875</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>102181886982.8456</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>43983</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>443745800000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.2324716384601079</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>103158313185.7913</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>44013</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>446125400000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.2439024390243903</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>108811073170.7317</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>44044</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>452793900000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.2468282568988498</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>111762329071.4321</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>44075</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>460999200000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.2406623026569118</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>110945128994.9942</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>44105</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>469280100000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.2399117124898038</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>112585792428.3864</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>44136</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>477295600000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.2448579823702253</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>116869637610.1861</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>44166</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>487349900000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.2524487529031607</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>123030874482.4801</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>44197</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>490302300000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.2493081698287253</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>122236369075.8146</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>44228</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>496963100000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.2479359333548211</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>123215010041.4053</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>44256</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>499199700000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.2384642899725766</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>119041302015.0232</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>44287</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>503531700000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.2459419576979833</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>123839572060.9936</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>44317</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>505771400000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.2489977839197231</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>125935957769.9759</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>44348</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>519456500000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.2407492115463322</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>125058742807.6173</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>44378</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>525187000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.2418379685610641</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>127010157194.6796</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>44409</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>533282400000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.239641496321503</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>127796592297.9223</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>44440</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>535908300000.0001</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.2342084923999344</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>125514275007.6118</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>44470</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>542910699999.9999</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.2354381503978905</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>127821891039.224</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>44501</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>547557400000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.2293157218858925</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>125563520454.9624</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>44531</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>564423000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.2301284116537028</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>129889768490.8179</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>44562</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>566680000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.2276504200150249</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>129004940014.1143</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>44593</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>570572500000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.2269477793159794</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>129490161813.7666</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>44621</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>567285500000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.2241700105359905</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>127168396511.9146</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>44652</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>569711700000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.2133560913164071</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>121551461489.2255</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>44682</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>569421400000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.2173818529629147</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>123781879048.737</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>44713</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>569309400000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.2121925859910455</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>120803233815.0105</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>44743</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>575950800000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.2075205445339088</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>119521623640.7404</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>44774</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>576962800000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.2077878901217637</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>119885882890.7451</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>44805</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>581768700000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1979335734927358</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>115151557737.2234</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>44835</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>580835800000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.2014382692423907</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>117002558266.0194</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>44866</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>584559600000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.2112557039040054</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>123491549771.8438</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>44896</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>603042000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.2184503134761998</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>131734713939.3145</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>44927</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>603647900000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.2209798245420193</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>133394007027.1584</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>44958</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>612183900000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.2148643131862229</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>131536473217.1634</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>44986</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>613926400000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.2205168915938961</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>135381141395.4309</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>45017</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>618680400000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.2248302531588651</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>139098070956.4279</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>45047</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>624790700000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.2154151049071561</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>134589354185.5155</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>45078</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>624519300000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.2204342554833021</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>137665446930.453</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>45108</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>622009300000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.2230848168473654</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>138760830767.8579</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>45139</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>626029700000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.2195775328268412</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>137462057002.3275</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>45170</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>640762400000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.2126709342634142</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>136271538248.8675</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Romania.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Romania.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3531,6 +3531,20 @@
         <v>136271538248.8675</v>
       </c>
     </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B228">
+        <v>640861400000</v>
+      </c>
+      <c r="C228">
+        <v>0.2129970819399774</v>
+      </c>
+      <c r="D228">
+        <v>136501608127.9687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Romania.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Romania.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Romania_M2 (RON)</t>
-  </si>
-  <si>
-    <t>Romania_FX (USD)</t>
-  </si>
-  <si>
-    <t>Romania_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,3167 +426,3205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D228"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Romania_M2 (RON)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Romania_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Romania_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>63176800000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>62118300000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>64213000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>66916500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>68005700000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>70768300000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>74778800000</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.3351094132234174</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>25059079789.55128</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>74619100000</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.3348289024308578</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>24984631353.37843</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>76743400000</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.3480682213713888</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>26711938739.99304</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>80276500000</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.3382377811601556</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>27152545239.30323</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>81162700000</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.330698766493601</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>26840404775.29019</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>81416900000</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.3225390272222939</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>26260127725.45478</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>86230300000</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0.3219782342713632</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>27764279734.68993</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>85490800000</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.3349634889797012</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>28636296643.66584</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>85533500000</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.3417518198284406</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>29231229281.29593</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>87229300000</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.3441274648129667</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>30017997866.40972</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>87722600000</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.3616113401316265</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>31721486945.83062</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>91441100000</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0.36405999708752</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>33290046599.67963</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>94635800000</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.356531660011409</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>33740658870.5077</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>95352800000</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.3574364656682275</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>34082567823.56936</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>97653700000</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.3620695897751548</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>35357435099.02603</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>98505100000</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0.3588216297678424</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>35345760522.44429</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>99690600000</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.3599452883161759</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>35883161759.41257</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>100796100000</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.3843049844356481</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>38736443641.67403</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>110442300000</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0.3897723729342065</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>43047357343.31151</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>106255000000</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.3798670465337132</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>40362773029.4397</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>109241000000</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.388681592039801</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>42459965796.01991</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>112348700000</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.3972825871042072</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>44634182193.79445</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>112943800000</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.4092992796332678</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>46227815979.04388</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>112663800000</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.4110658938627862</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>46312245652.97817</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>116127400000</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.430551967622492</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>49998880564.88418</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>119933500000</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.434348260435217</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>52092907092.9071</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>124293000000</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.4181650915781551</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>51974993727.52363</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>126507900000</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.4228508605015011</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>53493974375.23785</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>128738300000</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.4333882291756956</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>55793663864.08945</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>136109000000</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.4276245456489203</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>58203549283.72889</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>148043600000</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.4074315514993481</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>60317633637.54888</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>147458000000</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.4018646519852114</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>59258157852.4353</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>149685200000</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.4085634907664651</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>61155907828.07648</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>151794100000</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0.4247547041583486</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>64475258038.48278</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>157044700000</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0.4234596654668643</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>66502096125.34406</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>157568300000</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0.4281555060798082</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>67463735228.63504</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>161463000000</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.4372731645458918</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>70603436967.07332</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>161220700000</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.442008486562942</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>71260917609.6181</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>162279900000</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.4160426027625229</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>67515351972.04193</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>166012900000</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.3863987635239567</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>64147179289.02627</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>162147500000</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.3500542584100536</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>56760422865.54416</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>164370100000</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.3378264247829465</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>55528563224.21539</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>173628800000</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.353082409434362</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>61305275051.19695</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>175770000000</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.3014408874419726</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>52984264785.67553</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>175838100000</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.2954820790119079</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>51957007357.50377</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>174881700000</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.3133224714876551</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>54794366461.96265</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>175808300000</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.3053528352010748</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>53683562856.88112</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>176620800000</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.3403907686023555</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>60120089863.16291</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>179482000000</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.3338452293516725</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>59919209454.49689</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>180373000000</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.3385469564628614</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>61064730178.07569</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>182785300000</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.3390290208841877</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>61969521291.02251</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>182531800000</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.3474635163307853</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>63423141070.18763</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>182564200000</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.3442340791738382</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>62844819277.10844</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>184057600000</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.3523359875977732</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>64850116270.87591</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>188013000000</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.3408200129511605</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>64078593094.98653</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>184278400000</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.3382034632034632</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>62323593073.59308</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>185677200000</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.3318841060701603</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>61623311539.61037</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>187820600000</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.3289257285704888</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>61779027695.54635</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>188254300000</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.3230704616676897</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>60819403611.92776</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>190109300000</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.2933583665806149</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>55770153719.78409</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>192278800000</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.2809225496530607</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>54015450740.23093</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>190773000000</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.3061943109097033</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>58413607275.17683</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>192677100000</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.2973889252364242</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>57300035686.67103</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>192590400000</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.3201639239290516</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>61660498175.06563</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>191704000000</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.3271501946543658</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>62716000916.02054</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>194198200000</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.3023523009010098</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>58716272600.83449</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>199572100000</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.3129106952875649</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>62448244570.99944</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>196008000000</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.3219056816352809</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>63096088845.96813</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>194801000000</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.3284611594678929</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>63984562325.505</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>192901100000</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.3443170471370037</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>66419137141.47987</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>192979000000</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.3637024913620658</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>70186943080.5601</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>194621200000</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.3488088178869162</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>67885590707.73309</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>196089600000</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.3428884926621863</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>67236867370.73105</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>199479600000</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.3408664825987661</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>67995909602.20882</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>200475300000</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.3407271116562745</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>68307369927.42513</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>204772200000</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.3074179962495004</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>62950659411.60196</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>203293100000</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>0.319723758672507</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>64997634044.18583</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>205061000000</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>0.3088326127239037</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>63329524397.77641</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>212058900000</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>0.3000210014701029</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>63622123548.64841</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>212438900000</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.3015226895823911</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>64055148499.92462</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>213529300000</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.3068425897514575</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>65519883399.8159</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>214288700000</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>0.3044047365377006</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>65230495266.50636</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>216330900000</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>0.299275752678518</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>64742592925.1212</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>218572700000</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.2762583568152936</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>60382534946.68214</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>216449700000</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>0.2847299336579254</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>61629708721.27786</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>221067100000</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.2687160745955823</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>59404283334.22905</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>220022000000</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.2814126917123962</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>61916983255.94485</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>220774200000</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.2836959913756418</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>62632755539.16422</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>220230600000</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>0.2854614484313894</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>62867346064.91394</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>220506500000</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>0.2880765131218852</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>63522743640.71098</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>221829600000</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.2970620562635535</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>65897157116.12156</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>219147500000</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.3104144032283098</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>68026540431.47603</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>219301400000</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>0.30016509079994</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>65826624643.55396</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>225111200000</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.2905034424657932</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>65395578537.60567</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>225547300000</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>0.3045994517209869</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>68701583917.14895</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>225821600000</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>0.2954558884358565</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>66720321456.00661</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>227563300000</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>0.2919537545252832</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>66437959827.16338</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>225700100000</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>0.301331886940276</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>68010637015.60899</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>229632000000</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>0.2985341970922769</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>68553004746.69373</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>231258700000</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>0.30480370641307</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>70488508900.26822</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>233537400000</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>0.3068049334233295</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>71650426458.85747</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>234700000000</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>0.3067672863365851</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>71998282103.19652</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>241251000000</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>0.3081664098613251</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>74345454545.45454</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>240443700000</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>0.2998410842253605</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>72094899703.15732</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>242710700000</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>0.3069273502961849</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>74494552039.53224</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>239323700000</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>0.309052137095528</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>73963500942.60902</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>240613000000</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>0.3127736769673464</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>75257412736.14412</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>240549600000</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>0.3108486167236555</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>74774510413.42865</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>239506100000</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>0.3124902346801662</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>74843317396.33136</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>240389500000</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>0.3030486696163404</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>72849718164.73726</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>242528300000</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>0.2989357885926103</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>72500388616.52516</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>243219200000</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>0.2866150759529951</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>69710289481.22672</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>244570300000</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>0.2842847395951785</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>69527604048.21469</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>249191800000</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>0.2815473844247987</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>70159299510.10756</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>261572700000</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>0.2700367249945993</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>70634235255.99483</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>259192800000</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>0.2545371242395703</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>65974189935.6021</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>258559200000</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>0.2526783909440065</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>65332322619.76955</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>255274400000</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>0.2435994251053567</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>62184697084.11488</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>257454900000</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>0.2538650960879389</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>65358812926.8107</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>257686500000</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>0.2473472012664177</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>63738034579.13873</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>260845000000</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>0.2494574300895552</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>65069723351.71003</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>260015000000</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>0.2495757212738345</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>64893431167.01608</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>262173500000</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>0.2534083422026253</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>66436952004.45999</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>263647500000</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>0.2530492433827623</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>66715800394.75682</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>265075300000</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>0.2488676521825693</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>65968667562.59021</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>269636200000</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>0.2373830888287518</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>64007074016.0471</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>286126300000</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>0.241196333815726</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>69012614568.25856</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>283933800000</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>0.2384415460549846</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>67701614249.26678</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>283623100000</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>0.2436647173489279</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>69108942495.12671</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>280655000000</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>0.2550109654715152</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>71570102514.40811</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>285342300000</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>0.2557021581262146</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>72962641914.69777</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>290543300000</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>0.2467612584824183</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>71694830351.6348</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>294964700000</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>0.246056937575355</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>72578110774.8333</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>294072400000</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>0.2509221388603116</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>73789275587.7851</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>295604600000</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>0.2509536237703273</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>74183045573.17809</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>295922500000</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>0.2527678074920378</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>74799681512.56256</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>296506400000</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>0.244081034903588</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>72371588967.53722</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>301807600000</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>0.235865745217822</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>71186074486.40234</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>314026000000</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>0.2321316650804336</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>72895378258.54825</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>309824800000</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>0.2403441728555291</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>74464585286.12973</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>311655400000</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>0.2342304359028412</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>72999180193.47433</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>314511600000</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>0.2343786621665963</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>73714808043.87569</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>318498700000</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>0.2403210689481147</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>76541948042.58488</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>320618400000</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>0.2466212883496103</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>79071322876.59071</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>321076200000</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>0.2519145505844418</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>80883766626.36035</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>324218500000</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>0.2599428125812321</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>84278268780.86821</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>329607000000</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>0.259794242959576</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>85630001039.17696</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>332065200000</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>0.2572214934279908</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>85414306659.46446</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>336385900000</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>0.2530812643939969</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>85132968896.31261</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>339280200000</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>0.2567987468221155</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>87126730181.55672</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>350004800000</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>0.2579180852161354</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>90272567832.45641</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>348823700000</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>0.2670369579149754</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>93148819696.64603</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>352411100000</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>0.2619652634060723</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>92319466638.72371</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>351238500000</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>0.264977874347492</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>93070431119.00156</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>354917800000</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>0.2591546375722394</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>91978593826.93654</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>356539500000</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>0.251098556183302</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>89526553672.31639</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>362385300000</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>0.2506831114787797</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>90843874558.17102</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>360221900000</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>0.2530364372469636</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>91149266194.33199</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>365074400000</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>0.2502001601281025</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>91341673338.67093</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>366094800000</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>0.2495694926252215</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>91366093488.73193</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>368032900000</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>0.2426772150362802</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>89313199213.72581</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>376138000000</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>0.2436765924265315</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>91656026122.13072</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>381075300000</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>0.2464511041009464</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>93916428430.59937</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>382602200000</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>0.2419784155253351</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>92581474132.50739</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>384958100000</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>0.2397334164409177</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>92287320499.60445</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>383090000000</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>0.2351226164444758</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>90073123133.71423</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>390089800000</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>0.2357156326607581</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>91950264001.50858</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>389250600000</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>0.2354326074161271</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>91642283696.29195</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>390476100000</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>0.241196333815726</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>94181403762.66281</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>391420600000</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>0.2341372044017795</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>91646125029.26715</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>396300000000</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>0.2327205026762858</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>92227135210.61206</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>400422300000</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.2298903423067197</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>92053219614.244</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>404380900000</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.2345820920030965</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>94860517488.09496</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>411920600000</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>0.2304572271386431</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>94930079277.28615</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>422631600000</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>0.2345050770349178</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>99109255915.39055</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>419528800000</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>0.232320416318186</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>97465105473.46901</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>423524200000</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>0.2292841748062549</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>97107396707.47925</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>433934700000</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>0.2284722063560968</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>99142018323.47095</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>439076000000</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>0.2269477793159794</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>99647323150.94296</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>445553900000</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>0.2293367580955875</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>102181886982.8456</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>443745800000</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>0.2324716384601079</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>103158313185.7913</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>446125400000</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>0.2439024390243903</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>108811073170.7317</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>452793900000</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>0.2468282568988498</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>111762329071.4321</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>460999200000</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>0.2406623026569118</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>110945128994.9942</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>469280100000</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>0.2399117124898038</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>112585792428.3864</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>477295600000</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>0.2448579823702253</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>116869637610.1861</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>487349900000</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>0.2524487529031607</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>123030874482.4801</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>490302300000</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>0.2493081698287253</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>122236369075.8146</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>496963100000</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>0.2479359333548211</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>123215010041.4053</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>499199700000</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>0.2384642899725766</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>119041302015.0232</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>503531700000</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.2459419576979833</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>123839572060.9936</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>505771400000</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.2489977839197231</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>125935957769.9759</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>519456500000</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>0.2407492115463322</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>125058742807.6173</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>525187000000</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>0.2418379685610641</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>127010157194.6796</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>533282400000</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>0.239641496321503</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>127796592297.9223</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>535908300000.0001</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>0.2342084923999344</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>125514275007.6118</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>542910699999.9999</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.2354381503978905</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>127821891039.224</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>547557400000</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.2293157218858925</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>125563520454.9624</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>564423000000</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>0.2301284116537028</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>129889768490.8179</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>566680000000</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>0.2276504200150249</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>129004940014.1143</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>570572500000</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>0.2269477793159794</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>129490161813.7666</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>567285500000</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>0.2241700105359905</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>127168396511.9146</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>569711700000</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>0.2133560913164071</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>121551461489.2255</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>569421400000</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>0.2173818529629147</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>123781879048.737</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>569309400000</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>0.2121925859910455</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>120803233815.0105</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>575950800000</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.2075205445339088</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>119521623640.7404</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>576962800000</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>0.2077878901217637</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>119885882890.7451</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>581768700000</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.1979335734927358</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>115151557737.2234</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>580835800000</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>0.2014382692423907</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>117002558266.0194</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>584559600000</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>0.2112557039040054</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>123491549771.8438</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>603042000000</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>0.2184503134761998</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>131734713939.3145</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>603647900000</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>0.2209798245420193</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>133394007027.1584</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>612183900000</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>0.2148643131862229</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>131536473217.1634</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>613926400000</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>0.2205168915938961</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>135381141395.4309</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>618680400000</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>0.2248302531588651</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>139098070956.4279</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>624790700000</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.2154151049071561</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>134589354185.5155</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>624519300000</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>0.2204342554833021</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>137665446930.453</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>622009300000</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>0.2230848168473654</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>138760830767.8579</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>626029700000</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>0.2195775328268412</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>137462057002.3275</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>640762400000</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>0.2126709342634142</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>136271538248.8675</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>640861400000</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>0.2129970819399774</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>136501608127.9687</v>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B229" t="n">
+        <v>648147400000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.2192021043402017</v>
+      </c>
+      <c r="D229" t="n">
+        <v>142075274002.6304</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Romania.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Romania.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Romania_M2 (RON)</t>
+  </si>
+  <si>
+    <t>Romania_FX (USD)</t>
+  </si>
+  <si>
+    <t>Romania_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,3205 +385,3195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Romania_M2 (RON)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Romania_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Romania_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>38322</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>63176800000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>38353</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>62118300000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>38384</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>64213000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>38412</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>66916500000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>38443</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>68005700000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>38473</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>70768300000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>38504</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>74778800000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.3351094132234174</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>25059079789.55128</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>38534</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>74619100000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.3348289024308578</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>24984631353.37843</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>38565</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>76743400000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.3480682213713888</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>26711938739.99304</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>38596</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>80276500000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.3382377811601556</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>27152545239.30323</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>38626</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>81162700000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.330698766493601</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>26840404775.29019</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>38657</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>81416900000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.3225390272222939</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>26260127725.45478</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>38687</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>86230300000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.3219782342713632</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>27764279734.68993</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>38718</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>85490800000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.3349634889797012</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>28636296643.66584</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>38749</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>85533500000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.3417518198284406</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>29231229281.29593</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>38777</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>87229300000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.3441274648129667</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>30017997866.40972</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>38808</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>87722600000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.3616113401316265</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>31721486945.83062</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>38838</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>91441100000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.36405999708752</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>33290046599.67963</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>38869</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>94635800000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.356531660011409</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>33740658870.5077</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>38899</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>95352800000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3574364656682275</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>34082567823.56936</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>38930</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>97653700000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.3620695897751548</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>35357435099.02603</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>38961</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>98505100000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.3588216297678424</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>35345760522.44429</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>38991</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>99690600000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.3599452883161759</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>35883161759.41257</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>39022</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>100796100000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.3843049844356481</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>38736443641.67403</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>39052</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>110442300000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.3897723729342065</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>43047357343.31151</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>39083</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>106255000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.3798670465337132</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>40362773029.4397</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>39114</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>109241000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.388681592039801</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>42459965796.01991</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>39142</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>112348700000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.3972825871042072</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>44634182193.79445</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>39173</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>112943800000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.4092992796332678</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>46227815979.04388</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>39203</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>112663800000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.4110658938627862</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>46312245652.97817</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>39234</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>116127400000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.430551967622492</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>49998880564.88418</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>39264</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>119933500000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.434348260435217</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>52092907092.9071</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>39295</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>124293000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.4181650915781551</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>51974993727.52363</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>39326</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>126507900000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.4228508605015011</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>53493974375.23785</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>39356</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>128738300000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.4333882291756956</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>55793663864.08945</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>39387</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>136109000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.4276245456489203</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>58203549283.72889</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>39417</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>148043600000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.4074315514993481</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>60317633637.54888</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>39448</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>147458000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.4018646519852114</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>59258157852.4353</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>39479</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>149685200000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.4085634907664651</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>61155907828.07648</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>39508</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>151794100000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.4247547041583486</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>64475258038.48278</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>39539</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>157044700000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.4234596654668643</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>66502096125.34406</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>39569</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>157568300000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4281555060798082</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>67463735228.63504</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>39600</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>161463000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.4372731645458918</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>70603436967.07332</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>39630</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>161220700000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.442008486562942</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>71260917609.6181</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>39661</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>162279900000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.4160426027625229</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>67515351972.04193</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>39692</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>166012900000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3863987635239567</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>64147179289.02627</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>39722</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>162147500000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.3500542584100536</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>56760422865.54416</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>39753</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>164370100000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.3378264247829465</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>55528563224.21539</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>39783</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>173628800000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.353082409434362</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>61305275051.19695</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>39814</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>175770000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.3014408874419726</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>52984264785.67553</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>39845</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>175838100000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.2954820790119079</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>51957007357.50377</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>39873</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>174881700000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.3133224714876551</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>54794366461.96265</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>39904</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>175808300000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.3053528352010748</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>53683562856.88112</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>39934</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>176620800000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.3403907686023555</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>60120089863.16291</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>39965</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>179482000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.3338452293516725</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>59919209454.49689</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>39995</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>180373000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.3385469564628614</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>61064730178.07569</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>40026</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>182785300000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.3390290208841877</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>61969521291.02251</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>40057</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>182531800000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.3474635163307853</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>63423141070.18763</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>40087</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>182564200000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.3442340791738382</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>62844819277.10844</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>40118</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>184057600000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.3523359875977732</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>64850116270.87591</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>40148</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>188013000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.3408200129511605</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>64078593094.98653</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>40179</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>184278400000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.3382034632034632</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>62323593073.59308</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>40210</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>185677200000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.3318841060701603</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>61623311539.61037</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>40238</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>187820600000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.3289257285704888</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>61779027695.54635</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>40269</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>188254300000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.3230704616676897</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>60819403611.92776</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>40299</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>190109300000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.2933583665806149</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>55770153719.78409</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>40330</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>192278800000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.2809225496530607</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>54015450740.23093</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>40360</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>190773000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.3061943109097033</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>58413607275.17683</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>40391</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>192677100000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.2973889252364242</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>57300035686.67103</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>40422</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>192590400000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.3201639239290516</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>61660498175.06563</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>40452</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>191704000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.3271501946543658</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>62716000916.02054</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>40483</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>194198200000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.3023523009010098</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>58716272600.83449</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>40513</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>199572100000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.3129106952875649</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>62448244570.99944</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>40544</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>196008000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.3219056816352809</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>63096088845.96813</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>40575</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>194801000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.3284611594678929</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>63984562325.505</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>40603</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>192901100000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.3443170471370037</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>66419137141.47987</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>40634</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>192979000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.3637024913620658</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>70186943080.5601</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>40664</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>194621200000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.3488088178869162</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>67885590707.73309</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>40695</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>196089600000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.3428884926621863</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>67236867370.73105</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>40725</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>199479600000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.3408664825987661</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>67995909602.20882</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>40756</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>200475300000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.3407271116562745</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>68307369927.42513</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>40787</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>204772200000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.3074179962495004</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>62950659411.60196</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>40817</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>203293100000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.319723758672507</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>64997634044.18583</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>40848</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>205061000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.3088326127239037</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>63329524397.77641</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>40878</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>212058900000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.3000210014701029</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>63622123548.64841</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>40909</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>212438900000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.3015226895823911</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>64055148499.92462</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>40940</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>213529300000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.3068425897514575</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>65519883399.8159</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>40969</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>214288700000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.3044047365377006</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>65230495266.50636</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>41000</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>216330900000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.299275752678518</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>64742592925.1212</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>41030</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>218572700000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.2762583568152936</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>60382534946.68214</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>41061</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>216449700000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.2847299336579254</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>61629708721.27786</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>41091</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>221067100000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.2687160745955823</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>59404283334.22905</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>41122</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>220022000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.2814126917123962</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>61916983255.94485</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>41153</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>220774200000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.2836959913756418</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>62632755539.16422</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>41183</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>220230600000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.2854614484313894</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>62867346064.91394</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>41214</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>220506500000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.2880765131218852</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>63522743640.71098</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>41244</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>221829600000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.2970620562635535</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>65897157116.12156</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>41275</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>219147500000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.3104144032283098</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>68026540431.47603</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>41306</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>219301400000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.30016509079994</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>65826624643.55396</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>41334</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>225111200000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.2905034424657932</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>65395578537.60567</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>41365</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>225547300000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.3045994517209869</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>68701583917.14895</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>41395</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>225821600000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.2954558884358565</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>66720321456.00661</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>41426</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>227563300000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.2919537545252832</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>66437959827.16338</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>41456</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>225700100000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.301331886940276</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>68010637015.60899</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>41487</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>229632000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.2985341970922769</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>68553004746.69373</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>41518</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>231258700000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.30480370641307</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>70488508900.26822</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>41548</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>233537400000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.3068049334233295</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>71650426458.85747</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>41579</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>234700000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.3067672863365851</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>71998282103.19652</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>41609</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>241251000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.3081664098613251</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>74345454545.45454</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>41640</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>240443700000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.2998410842253605</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>72094899703.15732</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>41671</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>242710700000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.3069273502961849</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>74494552039.53224</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>41699</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>239323700000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.309052137095528</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>73963500942.60902</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>41730</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>240613000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.3127736769673464</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>75257412736.14412</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>41760</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>240549600000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.3108486167236555</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>74774510413.42865</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>41791</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>239506100000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.3124902346801662</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>74843317396.33136</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>41821</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>240389500000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.3030486696163404</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>72849718164.73726</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>41852</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>242528300000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.2989357885926103</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>72500388616.52516</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>41883</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>243219200000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.2866150759529951</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>69710289481.22672</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>41913</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>244570300000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.2842847395951785</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>69527604048.21469</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>41944</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>249191800000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.2815473844247987</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>70159299510.10756</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>41974</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>261572700000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.2700367249945993</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>70634235255.99483</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>42005</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>259192800000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.2545371242395703</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>65974189935.6021</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>42036</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>258559200000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.2526783909440065</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>65332322619.76955</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>42064</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>255274400000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.2435994251053567</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>62184697084.11488</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>42095</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>257454900000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.2538650960879389</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>65358812926.8107</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>42125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>257686500000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.2473472012664177</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>63738034579.13873</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>42156</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>260845000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.2494574300895552</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>65069723351.71003</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>42186</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>260015000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.2495757212738345</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>64893431167.01608</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>42217</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>262173500000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.2534083422026253</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>66436952004.45999</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>42248</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>263647500000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.2530492433827623</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>66715800394.75682</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>42278</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>265075300000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.2488676521825693</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>65968667562.59021</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>42309</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>269636200000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.2373830888287518</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>64007074016.0471</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>42339</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>286126300000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.241196333815726</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>69012614568.25856</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>42370</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>283933800000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.2384415460549846</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>67701614249.26678</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>42401</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>283623100000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.2436647173489279</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>69108942495.12671</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>42430</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>280655000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.2550109654715152</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>71570102514.40811</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>42461</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>285342300000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.2557021581262146</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>72962641914.69777</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>42491</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>290543300000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.2467612584824183</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>71694830351.6348</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>42522</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>294964700000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.246056937575355</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>72578110774.8333</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>42552</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>294072400000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.2509221388603116</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>73789275587.7851</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>42583</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>295604600000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.2509536237703273</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>74183045573.17809</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>42614</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>295922500000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.2527678074920378</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>74799681512.56256</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>42644</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>296506400000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.244081034903588</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>72371588967.53722</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>42675</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>301807600000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.235865745217822</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>71186074486.40234</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>42705</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>314026000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.2321316650804336</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>72895378258.54825</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>42736</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>309824800000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.2403441728555291</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>74464585286.12973</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>42767</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>311655400000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.2342304359028412</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>72999180193.47433</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>42795</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>314511600000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.2343786621665963</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>73714808043.87569</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>42826</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>318498700000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.2403210689481147</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>76541948042.58488</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>42856</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>320618400000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.2466212883496103</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>79071322876.59071</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>42887</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>321076200000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.2519145505844418</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>80883766626.36035</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>42917</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>324218500000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.2599428125812321</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>84278268780.86821</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>42948</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>329607000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.259794242959576</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>85630001039.17696</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>42979</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>332065200000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.2572214934279908</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>85414306659.46446</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>43009</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>336385900000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.2530812643939969</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>85132968896.31261</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>43040</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>339280200000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.2567987468221155</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>87126730181.55672</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>43070</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>350004800000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.2579180852161354</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>90272567832.45641</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>43101</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>348823700000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.2670369579149754</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>93148819696.64603</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>43132</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>352411100000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.2619652634060723</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>92319466638.72371</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>43160</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>351238500000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.264977874347492</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>93070431119.00156</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>43191</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>354917800000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.2591546375722394</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>91978593826.93654</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>43221</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>356539500000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.251098556183302</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>89526553672.31639</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>43252</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>362385300000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.2506831114787797</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>90843874558.17102</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>43282</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>360221900000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.2530364372469636</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>91149266194.33199</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>43313</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>365074400000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.2502001601281025</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>91341673338.67093</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>43344</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>366094800000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.2495694926252215</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>91366093488.73193</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>43374</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>368032900000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.2426772150362802</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>89313199213.72581</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>43405</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>376138000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.2436765924265315</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>91656026122.13072</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>43435</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>381075300000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.2464511041009464</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>93916428430.59937</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>43466</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>382602200000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.2419784155253351</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>92581474132.50739</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>43497</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>384958100000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.2397334164409177</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>92287320499.60445</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>43525</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>383090000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.2351226164444758</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>90073123133.71423</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>43556</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>390089800000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.2357156326607581</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>91950264001.50858</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>43586</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>389250600000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.2354326074161271</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>91642283696.29195</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>43617</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>390476100000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.241196333815726</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>94181403762.66281</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>43647</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>391420600000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.2341372044017795</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>91646125029.26715</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>43678</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>396300000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.2327205026762858</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>92227135210.61206</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>43709</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>400422300000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.2298903423067197</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>92053219614.244</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>43739</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>404380900000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.2345820920030965</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>94860517488.09496</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>43770</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>411920600000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.2304572271386431</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>94930079277.28615</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>43800</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>422631600000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.2345050770349178</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>99109255915.39055</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>43831</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>419528800000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.232320416318186</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>97465105473.46901</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>43862</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>423524200000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.2292841748062549</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>97107396707.47925</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>43891</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>433934700000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.2284722063560968</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>99142018323.47095</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>43922</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>439076000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.2269477793159794</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>99647323150.94296</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>43952</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>445553900000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.2293367580955875</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>102181886982.8456</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>43983</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>443745800000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.2324716384601079</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>103158313185.7913</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>44013</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>446125400000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.2439024390243903</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>108811073170.7317</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>44044</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>452793900000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.2468282568988498</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>111762329071.4321</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>44075</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>460999200000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.2406623026569118</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>110945128994.9942</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>44105</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>469280100000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.2399117124898038</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>112585792428.3864</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>44136</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>477295600000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.2448579823702253</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>116869637610.1861</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>44166</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>487349900000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.2524487529031607</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>123030874482.4801</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>44197</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>490302300000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.2493081698287253</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>122236369075.8146</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>44228</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>496963100000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.2479359333548211</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>123215010041.4053</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>44256</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>499199700000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.2384642899725766</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>119041302015.0232</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>44287</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>503531700000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.2459419576979833</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>123839572060.9936</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>44317</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>505771400000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.2489977839197231</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>125935957769.9759</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>44348</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>519456500000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.2407492115463322</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>125058742807.6173</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>44378</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>525187000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.2418379685610641</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>127010157194.6796</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>44409</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>533282400000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.239641496321503</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>127796592297.9223</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>44440</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>535908300000.0001</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.2342084923999344</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>125514275007.6118</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>44470</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>542910699999.9999</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.2354381503978905</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>127821891039.224</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>44501</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>547557400000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.2293157218858925</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>125563520454.9624</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>44531</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>564423000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.2301284116537028</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>129889768490.8179</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>44562</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>566680000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.2276504200150249</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>129004940014.1143</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>44593</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>570572500000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.2269477793159794</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>129490161813.7666</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>44621</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>567285500000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.2241700105359905</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>127168396511.9146</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>44652</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>569711700000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.2133560913164071</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>121551461489.2255</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>44682</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>569421400000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.2173818529629147</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>123781879048.737</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>44713</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>569309400000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.2121925859910455</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>120803233815.0105</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>44743</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>575950800000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.2075205445339088</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>119521623640.7404</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>44774</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>576962800000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.2077878901217637</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>119885882890.7451</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>44805</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>581768700000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1979335734927358</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>115151557737.2234</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>44835</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>580835800000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.2014382692423907</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>117002558266.0194</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>44866</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>584559600000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.2112557039040054</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>123491549771.8438</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>44896</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>603042000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.2184503134761998</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>131734713939.3145</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>44927</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>603647900000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.2209798245420193</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>133394007027.1584</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>44958</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>612183900000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.2148643131862229</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>131536473217.1634</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>44986</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>613926400000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.2205168915938961</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>135381141395.4309</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>45017</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>618680400000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.2248302531588651</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>139098070956.4279</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>45047</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>624790700000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.2154151049071561</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>134589354185.5155</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>45078</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>624519300000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.2204342554833021</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>137665446930.453</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>45108</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>622009300000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.2230848168473654</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>138760830767.8579</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>45139</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>626029700000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.2195775328268412</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>137462057002.3275</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>45170</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>640762400000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.2126709342634142</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>136271538248.8675</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>45200</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>640861400000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.2129970819399774</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>136501608127.9687</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>45231</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>648147400000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.2192021043402017</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>142075274002.6304</v>
       </c>
     </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B230">
+        <v>667757500000</v>
+      </c>
+      <c r="C230">
+        <v>0.2220544477505884</v>
+      </c>
+      <c r="D230">
+        <v>148278522893.8136</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>